--- a/Output/TitleList.xlsx
+++ b/Output/TitleList.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,7 +379,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[KBS·한국리서치 여론조사] 일주일새… 조국 찬성 42%→18%, 반대 36%→48%</t>
+          <t>다리 저리고 힘 빠진다면···가장 먼저 의심해야 할 질병은</t>
         </is>
       </c>
     </row>
@@ -389,7 +389,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>한국당도 놀랐다···10만 집회 2030 몰리자 "우리도 어리둥절"</t>
+          <t>유재환, 32kg 감량 후 몰라보게 달라진 모습…"열 가지 넘는 질병 앓아"</t>
         </is>
       </c>
     </row>
@@ -399,7 +399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>모자이크 없이 보란 듯 공개… 타격능력 과시하며 대남압박 [北, 신형 초대형 방사포 발사]</t>
+          <t>5400만 홀린 미국판 '복면가왕'… 눈독 들인 韓 예능 더 있죠</t>
         </is>
       </c>
     </row>
@@ -409,7 +409,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>조국, 딸 논란에 "부족한 법무부장관 지적 뼈아프지만…" 개혁 적임자 자처</t>
+          <t>뇌졸중으로 쓰러진 37세 뇌과학자가 처음 내뱉은 말은 “멋지다”…왜?</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>한국당 女 의원들 "이해찬 '나경원, 집에 가서 다른 일' 발언은 여성 비하"</t>
+          <t>“중학교 가더니 성적이 뚝↓” 부모들 하소연…초등생때 가장 신경 써야 할 것은</t>
         </is>
       </c>
     </row>
@@ -429,7 +429,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>변상욱이 '수꼴' 지목 청년 "아버지 없는 나와 가족 짓밟았다"</t>
+          <t>"왜 내가 이런 몹쓸 병에…" 자꾸 그 이유를 캐는 환자들</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[속보] 조국 "아이 문제에 안이한 아버지였다…국민께 송구"</t>
+          <t>눈 밑 오돌토돌 생기는 비립종,  인체 무해… 손으로 쥐어짜면 번질수도</t>
         </is>
       </c>
     </row>
@@ -449,7 +449,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>‘보란 듯’ 韓보다 26분 빨랐던 日, “자체 정보수집 능력 자랑 위한 것”</t>
+          <t xml:space="preserve"> ‘반일 종족주의’ 공동저자 이우연, 일본 극우단체 지원 받았다 </t>
         </is>
       </c>
     </row>
@@ -459,7 +459,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>부산대 촛불집회 추진위원장, 자유한국당 지부장…“양해 구했다”</t>
+          <t>“보수적 영국사회 BTS에 깜짝 놀라…‘대안적 남성상’ 될 것”</t>
         </is>
       </c>
     </row>
@@ -469,7 +469,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>조국 의혹 '가짜 뉴스'로 모는 여권… 靑관계자 "보수언론이 가짜뉴스 퍼뜨려"</t>
+          <t>이외수 "이명박 박근혜때 비해 조족지혈도 못되는 사건에 거품"</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>靑 국민청원 '조국 임명 찬성' 35만 vs '임명 반대' 20만</t>
+          <t>[제약] 콜레스테롤 수치 개선에 혈압 조절까지…`쿠바산 폴리코사놀` 눈에 띄네</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[속보] 청와대 청원 ‘조국 임명’ 35만 vs ‘임명 반대’ 20만 돌파</t>
+          <t>변상욱 앵커 "진영논리로 청년 박탈감 못 헤아려 반성"</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>軍, '지소미아 종료선언' 사흘 만에 독도방어훈련 전격 돌입(종합)</t>
+          <t>[단독]병리학회 이사장 "조국 딸 논문, IRB통과 허위땐 취소 사유"</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[단독] 변상욱에게 '수꼴' 조롱 당한 청년 "가재도 밟으면 꿈틀한다"(전문)</t>
+          <t>'꼭지' 안 보이는 노브라티, 한번 만들어봤습니다</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>변상욱 앵커 '수꼴' 발언 논란…배현진 "아들뻘 청년에 모욕"</t>
+          <t>"장인 대접은 바라지도 않아요, 그저 먹고 살 게만..."</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>조국 딸 의혹 엄호 나선 민주당 “황교안·나경원 자녀는 문제없나”</t>
+          <t>이젠 긴 승부다… “일본 상품·여행·식품 노노노”</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>신보라 "변상욱 앵커는 편협한 사고에 갇힌 386꼰대"</t>
+          <t>"미국 픽업트럭의 등장"…쉐보레 콜로라도 3,855만원부터</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">조국 가슴에 꽂힌 비수… "10년전 그분, 전자발찌 채우고 싶었던 내 딸 수시합격 자랑"   </t>
+          <t>“내 아들을 사령관으로 삼지 마시오” 조나라 장수의 모친이 상소 올린 이유는…</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>"정유라는 개인비리고 조국 딸은 입시제도 문제?" 하태경 "촛불 국민 얕잡아보는 것"</t>
+          <t>유재환 32kg 감량, 요요 예방하려면?</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[인터뷰]원희룡 "내 정체성은 野, 보수통합 역할 할 것...황교안 리더십이 중요"</t>
+          <t>'덕후' 데프콘이 에반게리온 벽지 떼낸 이유?</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>아직도 정신 못 차린 日?…일본 외무성 "독도는 일본땅!"</t>
+          <t>손승원 군 면제, '음주운전 뺑소니' 도대체 왜?</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>‘수꼴’ 조롱 당한 청년 “변상욱, 내 연설 전부 듣기나 했나”[전문]</t>
+          <t>예쁜데 실용적이기까지... 유럽인들이 열광한 그릇</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>북한의 뜬금없는 대만 비난, 한국에 없는 F-16V 왜 들먹였나</t>
+          <t>술잔 거부한 직원에 사이다 따라준 상사의 한 마디</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>日, 독도 방어 훈련 중지 요구…韓 "명백한 우리 영토"라며 일축(종합)</t>
+          <t>관광객들이 분수에 던진 동전, 하루에 얼마 모일까</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[이 시각 뉴스룸] "초대형 방사포 시험사격" 북, 어제 쏜 발사체 공개</t>
+          <t>결국 '생산량 감소'에 발목…르노삼성, 구조조정 검토</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[일요진단 라이브] 조국 법무장관 수행, 부적합 48% vs 적합 18%</t>
+          <t>현대차, 美 공략 히든카드 '투싼 픽업트럭'</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>靑 “2분기 가계소득 상당한 개선…역대최고 정책효과” 자평</t>
+          <t xml:space="preserve">밤마다 손목 저리고 아픈 중년 여성들…예견된 일이었다? </t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[속보] 군, ‘지소미아 종료’ 사흘 만에 독도방어훈련 돌입</t>
+          <t>[속보] 9호선 양천향교역 연기 유입…중앙보훈병원行 무정차 통과</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[단독]軍, '동해 영토수호훈련'에 사상 최초 이지스함 투입</t>
+          <t>전장 5.4m `쉐보레 콜로라도` 국내 픽업트럭 시장 정조준</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>배현진, 변상욱 '수꼴' 발언에 "청년 모욕, 안타깝다"(전문)</t>
+          <t xml:space="preserve"> 암 투병 끝 무대 선 ‘옹알스’ 조수원…“전 세계 웃길 때까지 계속뛸 것” </t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>"文정부 위선 드러나, 조국 사퇴" 한국당 장외투쟁에 10만명</t>
+          <t>변상욱 YTN 앵커, 조국 비판 청년에 "수꼴" 표현 논란</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>트럼프, 지소미아 종료 결정에 "무슨 일 일어날지 지켜볼것"(종합)</t>
+          <t>기아차, BMW·닛산에 '압승'… 아우토자이퉁 "쏘울EV, 가장 모던하고 완벽"</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>트럼프, 지소미아 종료 결정에 "무슨 일 일어날지 지켜볼것"</t>
+          <t>[박광식의 건강365] 암생존자 늘면서 ‘뼈 전이’ 덩달아 증가…포기 말아야</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[비하인드 뉴스] 김문수, 지소미아 종료에 "독도는 누구와 지키나"?</t>
+          <t>‘호텔 델루나’ 1분 장면에 40여 명이 3개월…해외서도 인정받은 CG 업체</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>“장관 후보자 사퇴하라” 촛불 켠 서울대-고대생들</t>
+          <t>‘60일, 지정생존자’ 지진희 “대통령 중압감 표현하려 오바마 사진 보며 체중감량했죠.” [인터뷰]</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[정치부 카톡방담] 국민 역린을 건드렸어… 신공에 가까운 조국 딸 ‘입시 레이스’</t>
+          <t>[단독]이재정이 '에세이'라던 조국 딸 논문···해외서 두번 인용</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>靑청원전으로 번진 조국 논란… "꼭 임명해달라" 25만 돌파</t>
+          <t>‘하나의 중국’을 지지하는 아이돌의 속내는?</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[속보]군 “日 요청에 북 발사체 정보 제공할 것…지소미아 유효”</t>
+          <t>김의성 "홍콩 경찰은 무슨 짓을 하나, 공격을 멈춰라"</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>수습 나선 靑 "미국 실망은 당연, 동맹 업그레이드할 것"</t>
+          <t>'비싸게 받았는데…' 젤네일, 꼭 지워야 되나요?</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>김진태 “내가 태극기 원조”… 조국 논란에 한국당 장외 열기 최고조</t>
+          <t>혈관을 깨끗하고 튼튼하게 만드는 식품 6</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[속보]조국 “딸, 공주대 인턴 前 논문저자 의혹 사실 아니다”</t>
+          <t>영화 520편 번역한 이미도, 못잊을 명대사는 "네가 기적이 돼라"</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[단독]‘사회환원’ 발표 마치자마자… 2시간 청문회 리허설</t>
+          <t>"까만 XX가" 샘 오취리가 당한 차별 없애려면</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>홍준표 “개념 있는 척하던 연예인들, 조국에는 왜 조용한가”</t>
+          <t>누가 거품이라고 했나… 한국은 지금 '테슬라 앓이'</t>
         </is>
       </c>
     </row>
@@ -809,7 +809,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"조국 딸 의혹 철저한 규명을"···고려대·서울대 이어 부산대도 촛불 든다</t>
+          <t xml:space="preserve"> 일본 극우 대변 ‘반일 종족주의’…부끄러운 일본 역진출 </t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>한국당, 서울 광화문서 文정권 규탄집회..10만 인파 집결</t>
+          <t>`생산절벽` 르노삼성자동차…7년만에 대규모 희망퇴직</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>"정유라 입시는 내란""공부 말라"던 김제동·강성태 '조국 침묵'</t>
+          <t>사랑 받고 큰 놈이 줄 줄도 안다? “천만에”</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>與 대표 사과…"3일 청문회" vs "정략적 태도"</t>
+          <t>입원을 거부하고 "집에서 죽고 싶다"던 아버지</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"한번 흥분된 민족감정은 어느 순간 누구도 통제할 수 없게 될 것" "美에게 지소미아 종료는 한국이 중국쪽으로 기울거란 신호로 읽혀"</t>
+          <t>공복에 안 좋은 음식? "아침에 고구마, 바나나, 우유 피하세요"</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>"조국 후보자 임명 반드시 해달라" 靑 국민청원 20만 돌파</t>
+          <t>전날 밤 꾼 꿈으로 내 건강 상태를 확인한다?</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>靑 "현 정부서 北미사일 분석에 日 정보 활용한 적 한번도 없다"</t>
+          <t>얼굴 살은 쉽게 빠지는데, 뱃살은 잘 안 빠지는 이유 있다</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>손혜원 “조국 심정, 내가 잘 안다”</t>
+          <t>‘자라섬재즈페스티벌’ 성공 신화 이끈 인재진 총감독</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>"공정, 정의 외친 文정권, 조국 임명으로 위선 드러나"...한국당, 광화문 집회 뒤 靑 향해 행진</t>
+          <t>충남 해수욕장 희비 교차…피서객 만리포 55%↑·대천 29%↓</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[기자수첩]조국 딸을 두고 '예서가 불쌍하다'는 여론</t>
+          <t>변상욱, '조국 비판' 청년에 '수꼴' 저격…YTN, 개인 의견인데 '어쩌라고'?</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>“文정부에 우려와 실망” 강한 불만 쏟아낸 美</t>
+          <t>[단독] 쏘나타 하이브리드, 정부 ‘친환경차 인정’ 지연에 한달 늦게 출고 시작</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>‘강경화 장관 손을 확 당겨~’ 고노 무례한 악수 포착</t>
+          <t>여성 암 발병률 1위 유방암  “남성도 걸린다”</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>靑 "北, 한미연합훈련 종료에도 단거리 발사체 발사…강한 우려"(종합)</t>
+          <t xml:space="preserve"> 홍진영, 소속사와 전속계약 분쟁…“이면계약 등 신뢰관계 깨져”  </t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>"조국 버리면 결집층 25% 공중분해"… '총선 셈법'에 매인 조국</t>
+          <t>공지영 "논두렁시계 2 재현"·안도현 "승냥이들 안쓰럽다"</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>조국 딸, 뻥튀기 자소서… 의전원에 “학생회장” 밝힌건 위법 소지</t>
+          <t>[민병래의 사수만보] "제 직장은 신당입니다" 박수진의 2년차 무당 입문기</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>김외숙·신지연·고민정···청와대 여성비서관 전성시대</t>
+          <t>[오뉴스] 20년차 개그맨, 9년차 '옥주부' 정종철, '살림은 남자가 해야 해요!'</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>'한일 이견해소'→'강력 우려·실망'…몇시간만에 확바뀐 美정부(종합)</t>
+          <t>"여기 밥 하나 볶아주세요" 대전 사람들만의 식 코드</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>청와대 이번엔 30대 정무비서관, 김앤장 출신 비서관도</t>
+          <t>된장찌개만 시켜도 갈치구이가 나오는 섬</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[지소미아 종료] 美 "한국 결정에 우려·실망" 직접적 불만 표출(종합)</t>
+          <t>몸이 축 처질 때…활력 일으키는 식품 5</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>안보 핑계로 '경제보복' 꺼냈던 日에 '지소미아' 종료 카드 꺼낸 韓 [이슈라인]</t>
+          <t>폐 기능이 꺼져가고 있음을 알려주는 다섯 가지 증세</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[단독] 조국 동생, 웅동학원 땅 담보로 14억 사채</t>
+          <t>찰리박 투병, 뇌졸중 후유증으로 마비 증세 겪어</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>靑이 밝힌 '지소미아 종료' 韓美日 막후외교…"日 무시로 일관"</t>
+          <t>[김지수의 인터스텔라] "행복은 신기루, 작은 즐거움으로 슬픔 덮고 살아야" 85세 정신과의사 이근후</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>'27개월' 문 대통령의 그림자, 청와대를 떠난다</t>
+          <t>[스브스뉴스] '비타민C' 많이 먹을수록 좋다? 영양제 오해와 진실</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>靑  "지소미아 종료, 美 이해한다" 했는데, 美는 '문재인 정부'라 부르며 "사실 아니다"</t>
+          <t>[박광식의 건강365] 고도비만에 당뇨병…‘비만대사수술’로 약 끊는다?!</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>협력 촉구→실망→文정부 심각···美 '지소미아 분노' 종일 세졌다</t>
+          <t>[강경주의 너의 이름은] 잼 1위 '복음자리', 김수환 추기경이 담은 뜻은?</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[속보] 청와대 “한미 NSC 간 ‘지소미아’ 긴밀하게 협의···동맹 더 굳건해질것”</t>
+          <t>“강아지 병원비 50만원 선뜻 낼 수 없다면 키우지 말라”</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>文대통령 지지율, 2%p 내린 45%…조국 논란속 긍·부정평가 역전(종합)</t>
+          <t>“필라테스, 허리-어깨통증 중년여성에 딱”</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>曺, 공익기부로 정면돌파 택했지만…반전 카드론 역부족</t>
+          <t>[가족의 발견(犬)] 제 발로 동물병원에 들어온 유기견</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[단독]조국이 펀드에 투자한 후, 관급공사 2년간 177건 수주</t>
+          <t>정해인이 '밥누나'보다 먼저 택한 첫 멜로 '유열의 음악앨범'</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>웅동학원 논란…조국 모친 “억장 무너져, 이사장 손 뗄 것”</t>
+          <t>태풍 '바이루' 수증기 한반도 유입돼 27일 전국 비</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>20대는 왜 文에 등을 돌렸나...조국 논란 속 지지율 ‘뚝’</t>
+          <t>'긴박했던 30분'…대한항공 승무원, 어금니 목에 걸린 日여아 살려</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[단독] 의전원, 조국 딸 장학금 받기 직전 성적제한 풀었다</t>
+          <t>서울 ℓ당 1,588.7원···전국 휘발유 가격  2주 연속 소폭 내려</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[속보] 美 국방부, 지소미아 종료에 '강한 우려와 실망감' 표명</t>
+          <t>'양주 주세요'하며 말던 '폭탄주 서커스'는 죽었다</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>대통령, 경찰학교서 친일경찰 대신 백범 김구 언급 왜?</t>
+          <t>도쿄올림픽서 '방사능 밥상'?…日, 밀어붙이는 이유는?</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>美, 지소미아 종료 반발…폼페이오 "실망"·국방부 "강한 우려"(종합2보)</t>
+          <t>[D스토리] "결혼하지 않고 가족이 될 수는 없을까요?"</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>"사모펀드 투자자 6명 전원이 조국 일가족"…더 커진 의혹</t>
+          <t>여행 좋아하는 사람들이 '강추'하는 휴게소 6선</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>美국방부 몇시간만에 '한일 이견해소 희망'→'강한 우려와 실망'</t>
+          <t>'성희롱 논란' 감스트, 2개월 만에 방송 복귀</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[전문] 靑 “지소미아 종료 책임, 우리 자존심 훼손한 일본에 있다”</t>
+          <t>트럼프, 한미연합훈련은 "돈 낭비", "北 발사 약속위반 아니다"</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>문 대통령, 지소미아 전격 종료 결정…'강공' 배경은?</t>
+          <t>트럼프, 아베에게 "한국, 김정은에 무시 당하고 있다" 비난</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>허찔린 日 "한국 어쩌자는 건가"…추가 보복카드 꺼내나</t>
+          <t>미군 위험까지 거론한 美…한국에 ‘지소미아’ 재개 압박 가하나</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>조국 딸 '유엔 인턴십'…고교생 2명 모두 서울대 교수 자녀</t>
+          <t>인도서 6세여아 성폭행 살해한 10대 형제…엄마는 시신 유기</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>‘조국 3일간 청문회’ 나경원 제안에 이해찬 “국무총리도 이틀인데 뭘 한다는 건지···”</t>
+          <t>트럼프 "中, 무역협상 복귀 원한다고 전화…합의할 것으로 생각"(종합)</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[속보]조국 모친, 웅동학원 경영 포기</t>
+          <t>트럼프, 아베 만나 "한·미 훈련 불필요···완전한 돈 낭비"</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>"실망했다" 美 폼페이오…강경화 "한미동맹과는 별개의 사안"</t>
+          <t>"트럼프 '한국, 김정은에게 우습게 보이고 있어'"…일 산케이 보도</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,797 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve">"이 정신나간…분노 금할 수 없다" 배현진, '지소미아' 종료 비난 </t>
+          <t>세상에 없던 무기? 북한이 쏜 '초대형 방사포' 분석하니</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>와다 하루키 "한국패싱은 악몽같은 정책" 아베에 작심비판</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>살인적 집값에 배에서 산다, 런던 청춘들의 '우울한 운하'</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>혼인신고 5분만에 교통사고로 숨진 부부의 안타까운 사연</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>"韓백색국가 제외지지" 日국민 65%…아베 지지율 5%p 상승</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>“프랑스 파리에 수백 km 지하굴”…어둠의 세계 ‘카타콤’</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>최루탄·물대포에 처음 실탄도 쐈다…최악 치닫는 홍콩 사태</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>실탄 발사된 홍콩시위…벼랑끝 캐리람</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>"훈련 중단하라" 항의…또 독도 억지주장 내놓은 일본</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>트럼프 "한·미 연합훈련은 돈 낭비…필요하다 생각 안 해"</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>일본 아베, 트럼프 만났지만 '빈손'…북한 미사일도 '시각차'</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>“옷 다벗은 뒤 몸 가리자 경찰이…” 홍콩 시위여성 ‘알몸수색’ 논란</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>홍콩 무너진 평화시위…첫 실탄 경고사격 · 물대포 등장</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>日아베 지지율 5%p 상승…日국민 65% "韓백색국가 제외 지지"</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>취재 도중 ‘탕’, 실탄 경고 사격까지…홍콩 시위 다시 격화</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>트럼프, 한미훈련 "완전한 돈 낭비...축소 훈련도 필요 없어"</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>日 정계 일부 자성론…이시바·하토야마 등 소신 발언</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>트럼프, 아베 면전서 “한국이 김정은에게 깔보이고 있다”</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> “아베 총리가 중국 대신 옥수수 구매”…일본, 무역협상 미에 일방적 양보 </t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>"중국이 안사는 옥수수, 일본이 삽니다" 미일무역협상 퍼주기 논란</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>한국, 65%가 “수면 부족해요”…다른 나라는 어떨까?</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>일 "독도훈련 중단해야" 반발…정부, 단호 대응 방침</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>“카터 미군 철수론 이후 최대 악재…한·미 동맹 미지의 길로”</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>고노도 강경화도 몰랐다···한·일 외교수장 '지소미아 헛다리'</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>아베 "지소미아 깬 한국, 선 넘었다"···日 "독도훈련 중단하라"</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>온몸 떨다가 굳은 채 ‘쾅’… 충전 중 폰게임 하다 감전사한 소년</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 퇴직 뒤 히키코모리 된 일본의 중장년들 </t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>日 외무성 “한국 독도 방어 훈련 매우 유감” 중지 요구</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>日 "독도는 일본땅, 韓방어훈련 당장 중단하라" 항의</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>日 차기 총리 주자 "日, 독일과 다르다는 것 인식해야"</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>[속보] 뻔뻔한 日 “日영토서 한국 독도훈련 중단하라”</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>트럼프, 지소미아 종료 결정에 “무슨 일 일어날지 지켜볼것”</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>트럼프 “합의 위반 아냐” vs 아베 “유엔결의 위반” 北발사 이견</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>열흘만에 깨진 평화시위…홍콩서 시위대·경찰 충돌(종합)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>G7무대 트럼프에 쏠리는 시선…美언론 "최고방해자"</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>트럼프, 北 무조건 감싸진 않았지만…아베와 北 미사일에 이견</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>[취재파일] 아베 신사 참배 때처럼 '실망'했다는 미국</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>노예노동에 성접대까지...기획사에 시달리는 日 ‘지하 아이돌’ 실태</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>[속보] 日관방 “한·일 지소미아 종료, 日방위 전혀 지장 없다”</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>평창 땐 빼줬더니…도쿄올림픽위, '독도 왜곡' 시정 거부</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>27세 여성과 결혼한 83세 남성 "젊은이한테 가라 했는데…"</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>고속으로 달리는 테슬라서 ‘쿨쿨’ 자는 여성 운전자 논란 (영상)</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>트럼프 “文 대통령은 좋은 친구… 지소미아 종료 지켜볼 것”</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>日언론 “일본, 北 미사일 발사 한국보다 26분 먼저 발표”</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>지소미아 종료 의식한듯···트럼프 만나 "北미사일 유감" 이견 밝힌 아베</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>군, 사상 최대 독도방어훈련 돌입…이례적 영상 공개</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>후쿠시마 오염토에 몸 비비는 소…오염토 섞어 농사 실험도</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>"아베, 측근들에 '지소미아 파기 선 넘었다' 불만 표출"</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 일본, 또 독도 우기기…“훈련 중지하라” </t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>골프장에 번개 번쩍…6명 부상, PGA 투어 챔피언십 경기 중단</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>중국 급했나…13분 동안 8개 미·중 소식 쏟아낸 CCTV</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>“지는 게 더 싫어” 거대 악어 코앞에서 무심하게 샷 날린 美 남성</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2살 아기에 '채식' 고집한 부모···몸무게 4.9㎏에 이도 안나</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>트럼프 美 대통령 “문 대통령은 나의 아주 좋은 친구…지켜보자”</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>"한국과의 대화 의미 없겠다"… 지소미아 종료 결정 후 '거리 두기' 나선 일본?</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>일본, 북한 미사일 발사 발표 10분 이상 앞섰다</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>日 방위상 “지소미아 11월까지 유효…한일·한미일 간 협력 원해”</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>트럼프 "김위원장 미사일실험 좋아해…약속위반 아냐"(종합)</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>'지구의 허파' 아마존이 3주 넘게 타고 있다</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>홍콩 시위대, 45㎞ 인간 띠로 '홍콩의 길' 만들어</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>日방위상 "지소미아 파기, 北 미사일 분석에 영향 없어...북한이 '간극' 노린듯"</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>[이슈] 트럼프 "중국 없으면 훨씬 더 나을 것"…中 '750억불 관세'에 '5500억불 관세폭탄'</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>트럼프 “중국산 관세율 30%로 인상”…‘관세폭탄’으로 반격</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>트럼프, 지소미아 파기 결정에 "文도, 아베도 좋은 친구...韓 지켜보자"</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>반발 또 반발…"아베, 한일 회담 서두르지 않을 것"</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>中 관세 맞불에 뿔난 트럼프…'관세율 30%인상' 바로 보복</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>트럼프, 지소미아 종료에 "무슨 일 일어나는지 지켜볼 것"</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>모기 추적 레이저 등장..."한 치의 오차도 없다"</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>[지금 세계는] 불타는 아마존…“전 지구 위협” vs “주권 침해”</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>"英앤드루 왕자, '성매매' 엡스타인 아파트서 젊은 여성에게 발 마사지 받아"</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>'지구의 허파' 아마존 보존 놓고 외교갈등...브라질 "주권 침해" vs EU "산림 훼손 말라"</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>아마존 산불 7만 6000여건 이르자 브라질 이제야 “군대 투입”</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>&lt;교도&gt; "아베, 사태 관망... 한일정상회담 당분간 없을 것"</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>[여기는 중국] 선의로 유모차 들어준 청년…도리어 소송 당한 사연</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>日정부 “한국 상대 않는 게 제일”…아베 “한·일정상회담? 관망하라”</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>美·中 관세전쟁 '끝까지'…난타전으로 더 어려워진 무역협상(종합)</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>中의 반격…美에 750억弗 보복관세</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>'아마존 열대우림 산불'에 유럽 각국 이어 美도 우려 표명</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>불타는 지구의 허파…브라질 아마존 산불로 신음</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>홍콩 인간 띠로 45㎞ ‘홍콩의 길’ 시위…송환법 철폐 요구</t>
         </is>
       </c>
     </row>
